--- a/Time Managment.xlsx
+++ b/Time Managment.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Desktop\Time Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1231ABE-2664-426F-92F6-C98119138075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E27BB-B48B-402B-A129-66AFEB45C584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="site" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Day</t>
   </si>
@@ -52,6 +53,33 @@
   </si>
   <si>
     <t>zaban</t>
+  </si>
+  <si>
+    <t>https://www.perplexity.ai/</t>
+  </si>
+  <si>
+    <t>seach site</t>
+  </si>
+  <si>
+    <t>poe.com</t>
+  </si>
+  <si>
+    <t>ai site</t>
+  </si>
+  <si>
+    <t>https://10minutemail.net</t>
+  </si>
+  <si>
+    <t>fake email</t>
+  </si>
+  <si>
+    <t>https://throwaway-email.com/</t>
+  </si>
+  <si>
+    <t>https://temp-mail.org</t>
+  </si>
+  <si>
+    <t>https://tmailor.com/en</t>
   </si>
 </sst>
 </file>
@@ -59,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-160429]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-1000000]hh:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[$-160429]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-1000000]hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +101,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,18 +152,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -491,4 +530,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20842EAF-67DB-47DE-AC47-4A882B62EA3E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0653E13F-9338-49CF-8D74-182F54A9D177}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Time Managment.xlsx
+++ b/Time Managment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Desktop\Time Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E27BB-B48B-402B-A129-66AFEB45C584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86B69EF-E451-4693-856F-EE5D59ED2025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Day</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>https://tmailor.com/en</t>
+  </si>
+  <si>
+    <t>DALL-E 2.0</t>
+  </si>
+  <si>
+    <t>برای خلق تصاویر</t>
   </si>
 </sst>
 </file>
@@ -534,16 +540,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20842EAF-67DB-47DE-AC47-4A882B62EA3E}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,6 +598,14 @@
       </c>
       <c r="B6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Time Managment.xlsx
+++ b/Time Managment.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Desktop\Time Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliAhz\Desktop\Github\Time-Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86B69EF-E451-4693-856F-EE5D59ED2025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769ADF2-6FF3-43E1-8662-AAE00E19B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="site" sheetId="2" r:id="rId2"/>
+    <sheet name="sahrivar And mehr" sheetId="1" r:id="rId1"/>
+    <sheet name="Aban" sheetId="3" r:id="rId2"/>
+    <sheet name="Tag" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Day</t>
   </si>
@@ -49,43 +50,25 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>زبان تخصصی</t>
-  </si>
-  <si>
-    <t>zaban</t>
-  </si>
-  <si>
-    <t>https://www.perplexity.ai/</t>
-  </si>
-  <si>
-    <t>seach site</t>
-  </si>
-  <si>
-    <t>poe.com</t>
-  </si>
-  <si>
-    <t>ai site</t>
-  </si>
-  <si>
-    <t>https://10minutemail.net</t>
-  </si>
-  <si>
-    <t>fake email</t>
-  </si>
-  <si>
-    <t>https://throwaway-email.com/</t>
-  </si>
-  <si>
-    <t>https://temp-mail.org</t>
-  </si>
-  <si>
-    <t>https://tmailor.com/en</t>
-  </si>
-  <si>
-    <t>DALL-E 2.0</t>
-  </si>
-  <si>
-    <t>برای خلق تصاویر</t>
+    <t>week</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Month sharivar</t>
+  </si>
+  <si>
+    <t>week 25-31</t>
+  </si>
+  <si>
+    <t>مرتب کردن Obsidian</t>
+  </si>
+  <si>
+    <t>100 jobs</t>
   </si>
 </sst>
 </file>
@@ -105,22 +88,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sahel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Sahel"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +114,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,36 +130,138 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,167 +540,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.65" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="12"/>
+    <col min="4" max="4" width="11.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45142</v>
-      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" thickTop="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A4" s="11">
+        <f ca="1">TODAY()</f>
+        <v>45185</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A10" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20842EAF-67DB-47DE-AC47-4A882B62EA3E}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4735AF7-246F-4DC4-9C13-3022D7F8CA10}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="2"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{0653E13F-9338-49CF-8D74-182F54A9D177}"/>
-  </hyperlinks>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBF68E7-3B7C-4A37-88B9-52176FDD3F10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Time Managment.xlsx
+++ b/Time Managment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliAhz\Desktop\Github\Time-Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alahmadizadeh\Desktop\Time-Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769ADF2-6FF3-43E1-8662-AAE00E19B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93868583-F937-45A0-A850-83A9695382E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sahrivar And mehr" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -65,10 +62,7 @@
     <t>week 25-31</t>
   </si>
   <si>
-    <t>مرتب کردن Obsidian</t>
-  </si>
-  <si>
-    <t>100 jobs</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -79,7 +73,7 @@
     <numFmt numFmtId="164" formatCode="[$-160429]dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-1000000]hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +90,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Sahel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Sahel"/>
       <family val="2"/>
@@ -226,13 +227,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,22 +261,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -543,83 +565,80 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.65" x14ac:dyDescent="1.1000000000000001"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="12"/>
-    <col min="4" max="4" width="11.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="10"/>
+    <col min="1" max="1" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="23.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" thickTop="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" ht="22.5" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="8">
         <f ca="1">TODAY()</f>
-        <v>45185</v>
-      </c>
-      <c r="B4" s="10" t="s">
+        <v>45186</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A10" s="11"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -639,69 +658,69 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="2"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="1.45">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
@@ -720,7 +739,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
